--- a/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/new dfs serp fetches db stuff 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/new dfs serp fetches db stuff 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A620C9A3-09EA-504E-A46A-542866E88BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142A7283-931B-DD4C-A048-E1ADBA6546BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{52B6F56B-8AA6-E444-859E-A9FF79777254}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>SERIAL</t>
   </si>
@@ -150,10 +150,10 @@
     <t>breadcrumb</t>
   </si>
   <si>
-    <t>serp_results</t>
-  </si>
-  <si>
-    <t>serp_fetches</t>
+    <t>zhe_serp_fetches</t>
+  </si>
+  <si>
+    <t>zhe_serp_results</t>
   </si>
   <si>
     <t>zheserp_fetches</t>
@@ -166,6 +166,27 @@
   </si>
   <si>
     <t>fetch_id</t>
+  </si>
+  <si>
+    <t>rank_in_group</t>
+  </si>
+  <si>
+    <t>rel_keyword_id</t>
+  </si>
+  <si>
+    <t>d_keyword_datum</t>
+  </si>
+  <si>
+    <t>need sql trigger to pull this through the relationship to keywordshub and store it as denormalized field as denoted by "d_"</t>
+  </si>
+  <si>
+    <t>d_location_code</t>
+  </si>
+  <si>
+    <t>d_language_code</t>
+  </si>
+  <si>
+    <t>rel_zhe_serp_fetch_id</t>
   </si>
 </sst>
 </file>
@@ -233,11 +254,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,43 +594,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3876F017-179C-684F-944C-793DFD356547}">
-  <dimension ref="D1:G50"/>
+  <dimension ref="B1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
     <col min="5" max="5" width="46.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="4:7" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="4:7" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
       <c r="D16" t="s">
         <v>35</v>
       </c>
@@ -623,7 +644,10 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
       <c r="D17" t="s">
         <v>2</v>
       </c>
@@ -634,31 +658,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
@@ -666,7 +669,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
       <c r="D22" t="s">
         <v>10</v>
       </c>
@@ -674,7 +680,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
@@ -682,7 +691,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
       <c r="D24" t="s">
         <v>13</v>
       </c>
@@ -690,7 +702,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
       <c r="D25" t="s">
         <v>14</v>
       </c>
@@ -698,7 +713,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
@@ -706,7 +724,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
@@ -717,18 +738,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="4:6" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D36" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
       <c r="D40" t="s">
         <v>34</v>
       </c>
@@ -742,7 +761,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D41" t="s">
         <v>20</v>
       </c>
@@ -753,7 +775,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
       <c r="D42" t="s">
         <v>22</v>
       </c>
@@ -761,7 +786,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D43" t="s">
         <v>23</v>
       </c>
@@ -769,7 +797,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D44" t="s">
         <v>24</v>
       </c>
@@ -777,7 +808,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
       <c r="D45" t="s">
         <v>25</v>
       </c>
@@ -785,7 +819,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
       <c r="D46" t="s">
         <v>26</v>
       </c>
@@ -793,7 +830,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
       <c r="D47" t="s">
         <v>27</v>
       </c>
@@ -801,7 +841,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
       <c r="D48" t="s">
         <v>28</v>
       </c>
@@ -809,7 +852,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
       <c r="D49" t="s">
         <v>29</v>
       </c>
@@ -817,7 +863,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
       <c r="D50" t="s">
         <v>17</v>
       </c>
@@ -826,6 +875,49 @@
       </c>
       <c r="F50" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/new dfs serp fetches db stuff 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/new dfs serp fetches db stuff 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142A7283-931B-DD4C-A048-E1ADBA6546BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF578756-241C-0448-A296-37E449D4A673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{52B6F56B-8AA6-E444-859E-A9FF79777254}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
   <si>
     <t>SERIAL</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>rel_zhe_serp_fetch_id</t>
+  </si>
+  <si>
+    <t>please create new page at:</t>
+  </si>
+  <si>
+    <t>/serpjar</t>
   </si>
 </sst>
 </file>
@@ -594,11 +600,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3876F017-179C-684F-944C-793DFD356547}">
-  <dimension ref="B1:G64"/>
+  <dimension ref="B1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -920,6 +926,16 @@
         <v>39</v>
       </c>
     </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/new dfs serp fetches db stuff 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/new dfs serp fetches db stuff 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF578756-241C-0448-A296-37E449D4A673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379A735C-C01E-404C-8331-9897C7B35F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{52B6F56B-8AA6-E444-859E-A9FF79777254}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
   <si>
     <t>SERIAL</t>
   </si>
@@ -189,10 +189,19 @@
     <t>rel_zhe_serp_fetch_id</t>
   </si>
   <si>
-    <t>please create new page at:</t>
-  </si>
-  <si>
     <t>/serpjar</t>
+  </si>
+  <si>
+    <t>/zhefetchjar</t>
+  </si>
+  <si>
+    <t>please create 2 new pages at:</t>
+  </si>
+  <si>
+    <t>please leave the main interface mostly blank until I give you further instructions</t>
+  </si>
+  <si>
+    <t>(do not put anything whatsoever in the main page content area - not even a heading or title - just leave it blank / gray)</t>
   </si>
 </sst>
 </file>
@@ -600,11 +609,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3876F017-179C-684F-944C-793DFD356547}">
-  <dimension ref="B1:G74"/>
+  <dimension ref="B1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
+      <selection pane="bottomLeft" activeCell="E72" sqref="E72:E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -928,12 +937,27 @@
     </row>
     <row r="72" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E72" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E74" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
